--- a/py/Output/Step_1/LHS_Samples.xlsx
+++ b/py/Output/Step_1/LHS_Samples.xlsx
@@ -599,7 +599,7 @@
         <v>0.06</v>
       </c>
       <c r="J2" t="n">
-        <v>343528790</v>
+        <v>359141980</v>
       </c>
       <c r="K2" t="n">
         <v>210000000000</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-8.5838693</v>
+        <v>-11.150579</v>
       </c>
       <c r="U2" t="n">
         <v>0.14</v>
@@ -682,7 +682,7 @@
         <v>0.06</v>
       </c>
       <c r="J3" t="n">
-        <v>388571540</v>
+        <v>318394330</v>
       </c>
       <c r="K3" t="n">
         <v>210000000000</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>14.192508</v>
+        <v>14.50163</v>
       </c>
       <c r="U3" t="n">
         <v>0.14</v>
